--- a/2020/February/Others/Price List Update_01.01.2020.xlsx
+++ b/2020/February/Others/Price List Update_01.01.2020.xlsx
@@ -983,15 +983,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,6 +999,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1328,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2428,7 +2428,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2874,7 +2874,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2945,7 +2945,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3019,7 +3019,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3090,7 +3090,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3407,7 +3407,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4507,7 +4507,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4953,7 +4953,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5024,7 +5024,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5098,7 +5098,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5169,7 +5169,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5486,7 +5486,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6586,7 +6586,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7032,7 +7032,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7103,7 +7103,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7177,7 +7177,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -7248,7 +7248,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10340,8 +10340,8 @@
   </sheetPr>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10360,73 +10360,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
     </row>
     <row r="3" spans="1:25" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:25" s="40" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="43" t="s">
@@ -11805,7 +11805,7 @@
       <c r="K51" s="47"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="80" t="s">
+      <c r="A52" s="77" t="s">
         <v>92</v>
       </c>
       <c r="B52" s="53"/>
@@ -11817,14 +11817,14 @@
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
-      <c r="I52" s="76" t="s">
+      <c r="I52" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="81"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
       <c r="D53" s="54"/>
@@ -11832,9 +11832,9 @@
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="79"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="9">
